--- a/Final_table.xlsx
+++ b/Final_table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>Parameter</t>
   </si>
@@ -24,9 +24,6 @@
   </si>
   <si>
     <t>PY1</t>
-  </si>
-  <si>
-    <t>PY2</t>
   </si>
   <si>
     <t>r</t>
@@ -190,392 +187,353 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>67.376</v>
+        <v>67.369</v>
       </c>
       <c r="D2" t="n">
-        <v>67.338</v>
+        <v>67.33</v>
       </c>
       <c r="E2" t="n">
-        <v>67.329</v>
+        <v>67.343</v>
       </c>
       <c r="F2" t="n">
-        <v>67.33</v>
+        <v>5.0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.0</v>
+        <v>50000.0</v>
       </c>
       <c r="H2" t="n">
-        <v>30000.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>12000.0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
+        <v>15000.0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>0.744</v>
+        <v>0.742</v>
       </c>
       <c r="D3" t="n">
-        <v>0.744</v>
+        <v>0.747</v>
       </c>
       <c r="E3" t="n">
-        <v>0.748</v>
+        <v>0.745</v>
       </c>
       <c r="F3" t="n">
-        <v>0.748</v>
+        <v>5.0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.0</v>
+        <v>50000.0</v>
       </c>
       <c r="H3" t="n">
-        <v>30000.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12000.0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
+        <v>15000.0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>0.743</v>
+        <v>0.74</v>
       </c>
       <c r="D4" t="n">
-        <v>0.743</v>
+        <v>0.745</v>
       </c>
       <c r="E4" t="n">
         <v>0.744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.745</v>
+        <v>5.0</v>
       </c>
       <c r="G4" t="n">
-        <v>5.0</v>
+        <v>50000.0</v>
       </c>
       <c r="H4" t="n">
-        <v>30000.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12000.0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
+        <v>15000.0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
         <v>0.754</v>
       </c>
       <c r="D5" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="E5" t="n">
-        <v>0.756</v>
+        <v>0.758</v>
       </c>
       <c r="F5" t="n">
-        <v>0.755</v>
+        <v>5.0</v>
       </c>
       <c r="G5" t="n">
-        <v>5.0</v>
+        <v>50000.0</v>
       </c>
       <c r="H5" t="n">
-        <v>30000.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12000.0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
+        <v>15000.0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>0.793</v>
+        <v>0.794</v>
       </c>
       <c r="D6" t="n">
-        <v>0.79</v>
+        <v>0.794</v>
       </c>
       <c r="E6" t="n">
         <v>0.792</v>
       </c>
       <c r="F6" t="n">
-        <v>0.792</v>
+        <v>5.0</v>
       </c>
       <c r="G6" t="n">
-        <v>5.0</v>
+        <v>50000.0</v>
       </c>
       <c r="H6" t="n">
-        <v>30000.0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12000.0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
+        <v>15000.0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>3.832</v>
+        <v>3.714</v>
       </c>
       <c r="D7" t="n">
-        <v>3.787</v>
+        <v>3.916</v>
       </c>
       <c r="E7" t="n">
-        <v>3.864</v>
+        <v>3.936</v>
       </c>
       <c r="F7" t="n">
-        <v>3.832</v>
+        <v>5.0</v>
       </c>
       <c r="G7" t="n">
-        <v>5.0</v>
+        <v>50000.0</v>
       </c>
       <c r="H7" t="n">
-        <v>30000.0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>12000.0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>33</v>
+        <v>15000.0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>0.044</v>
+        <v>0.068</v>
       </c>
       <c r="D8" t="n">
-        <v>0.088</v>
+        <v>0.067</v>
       </c>
       <c r="E8" t="n">
-        <v>0.063</v>
+        <v>0.071</v>
       </c>
       <c r="F8" t="n">
-        <v>0.079</v>
+        <v>5.0</v>
       </c>
       <c r="G8" t="n">
-        <v>5.0</v>
+        <v>50000.0</v>
       </c>
       <c r="H8" t="n">
-        <v>30000.0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>12000.0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>33</v>
+        <v>15000.0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>3.875</v>
+        <v>3.771</v>
       </c>
       <c r="D9" t="n">
-        <v>3.857</v>
+        <v>3.809</v>
       </c>
       <c r="E9" t="n">
-        <v>3.995</v>
+        <v>3.872</v>
       </c>
       <c r="F9" t="n">
-        <v>3.765</v>
+        <v>5.0</v>
       </c>
       <c r="G9" t="n">
-        <v>5.0</v>
+        <v>50000.0</v>
       </c>
       <c r="H9" t="n">
-        <v>30000.0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>12000.0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>33</v>
+        <v>15000.0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>0.061</v>
+        <v>0.063</v>
       </c>
       <c r="D10" t="n">
-        <v>0.104</v>
+        <v>0.103</v>
       </c>
       <c r="E10" t="n">
-        <v>0.057</v>
+        <v>0.099</v>
       </c>
       <c r="F10" t="n">
-        <v>0.085</v>
+        <v>5.0</v>
       </c>
       <c r="G10" t="n">
-        <v>5.0</v>
+        <v>50000.0</v>
       </c>
       <c r="H10" t="n">
-        <v>30000.0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>12000.0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>33</v>
+        <v>15000.0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>35.582</v>
+        <v>35.616</v>
       </c>
       <c r="D11" t="n">
-        <v>18.159</v>
+        <v>19.323</v>
       </c>
       <c r="E11" t="n">
-        <v>19.118</v>
+        <v>19.828</v>
       </c>
       <c r="F11" t="n">
-        <v>19.654</v>
+        <v>5.0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.0</v>
+        <v>50000.0</v>
       </c>
       <c r="H11" t="n">
-        <v>30000.0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>12000.0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>33</v>
+        <v>15000.0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
       <c r="D12" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="E12" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="F12" t="n">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
       <c r="G12" t="n">
-        <v>5.0</v>
+        <v>50000.0</v>
       </c>
       <c r="H12" t="n">
-        <v>30000.0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>12000.0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>33</v>
+        <v>15000.0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
       <c r="D13" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="E13" t="n">
         <v>18.0</v>
       </c>
       <c r="F13" t="n">
-        <v>18.0</v>
+        <v>5.0</v>
       </c>
       <c r="G13" t="n">
-        <v>5.0</v>
+        <v>50000.0</v>
       </c>
       <c r="H13" t="n">
-        <v>30000.0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>12000.0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>33</v>
+        <v>15000.0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Final_table.xlsx
+++ b/Final_table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Parameter</t>
   </si>
@@ -20,7 +20,7 @@
     <t>GJAM</t>
   </si>
   <si>
-    <t>GJAM2</t>
+    <t>GJAM1</t>
   </si>
   <si>
     <t>PY1</t>
@@ -65,15 +65,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>DIC</t>
   </si>
   <si>
@@ -86,16 +77,7 @@
     <t>AUC in</t>
   </si>
   <si>
-    <t>AUC cond</t>
-  </si>
-  <si>
-    <t>VI dist Binder loss</t>
-  </si>
-  <si>
-    <t>AR dist Binder loss</t>
-  </si>
-  <si>
-    <t>VI dist VI loss</t>
+    <t>AR dist VI loss 2</t>
   </si>
   <si>
     <t>AR dist VI loss</t>
@@ -104,7 +86,7 @@
     <t>mean K</t>
   </si>
   <si>
-    <t>K Bind</t>
+    <t>K VI2</t>
   </si>
   <si>
     <t>K VI</t>
@@ -193,16 +175,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>67.369</v>
+        <v>67.375</v>
       </c>
       <c r="D2" t="n">
         <v>67.33</v>
       </c>
       <c r="E2" t="n">
-        <v>67.343</v>
+        <v>67.329</v>
       </c>
       <c r="F2" t="n">
         <v>5.0</v>
@@ -214,7 +196,7 @@
         <v>15000.0</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -222,16 +204,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>0.742</v>
+        <v>0.741</v>
       </c>
       <c r="D3" t="n">
         <v>0.747</v>
       </c>
       <c r="E3" t="n">
-        <v>0.745</v>
+        <v>0.747</v>
       </c>
       <c r="F3" t="n">
         <v>5.0</v>
@@ -243,7 +225,7 @@
         <v>15000.0</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -251,17 +233,17 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
         <v>0.74</v>
       </c>
       <c r="D4" t="n">
+        <v>0.744</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.745</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.744</v>
-      </c>
       <c r="F4" t="n">
         <v>5.0</v>
       </c>
@@ -272,7 +254,7 @@
         <v>15000.0</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -280,16 +262,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>0.754</v>
+        <v>0.755</v>
       </c>
       <c r="D5" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="E5" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="F5" t="n">
         <v>5.0</v>
@@ -301,7 +283,7 @@
         <v>15000.0</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -309,16 +291,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>0.794</v>
+        <v>0.048</v>
       </c>
       <c r="D6" t="n">
-        <v>0.794</v>
+        <v>0.065</v>
       </c>
       <c r="E6" t="n">
-        <v>0.792</v>
+        <v>0.072</v>
       </c>
       <c r="F6" t="n">
         <v>5.0</v>
@@ -330,7 +312,7 @@
         <v>15000.0</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -338,16 +320,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>3.714</v>
+        <v>0.071</v>
       </c>
       <c r="D7" t="n">
-        <v>3.916</v>
+        <v>0.067</v>
       </c>
       <c r="E7" t="n">
-        <v>3.936</v>
+        <v>0.087</v>
       </c>
       <c r="F7" t="n">
         <v>5.0</v>
@@ -359,7 +341,7 @@
         <v>15000.0</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -367,16 +349,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>0.068</v>
+        <v>35.403</v>
       </c>
       <c r="D8" t="n">
-        <v>0.067</v>
+        <v>19.619</v>
       </c>
       <c r="E8" t="n">
-        <v>0.071</v>
+        <v>17.334</v>
       </c>
       <c r="F8" t="n">
         <v>5.0</v>
@@ -388,7 +370,7 @@
         <v>15000.0</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -396,19 +378,19 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>3.771</v>
+        <v>46.0</v>
       </c>
       <c r="D9" t="n">
-        <v>3.809</v>
+        <v>19.0</v>
       </c>
       <c r="E9" t="n">
-        <v>3.872</v>
+        <v>17.0</v>
       </c>
       <c r="F9" t="n">
-        <v>5.0</v>
+        <v>46.0</v>
       </c>
       <c r="G9" t="n">
         <v>50000.0</v>
@@ -417,7 +399,7 @@
         <v>15000.0</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -425,19 +407,19 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>0.063</v>
+        <v>27.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.103</v>
+        <v>17.0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.099</v>
+        <v>14.0</v>
       </c>
       <c r="F10" t="n">
-        <v>5.0</v>
+        <v>27.0</v>
       </c>
       <c r="G10" t="n">
         <v>50000.0</v>
@@ -446,94 +428,7 @@
         <v>15000.0</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="n">
-        <v>35.616</v>
-      </c>
-      <c r="D11" t="n">
-        <v>19.323</v>
-      </c>
-      <c r="E11" t="n">
-        <v>19.828</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>50000.0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>15000.0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>50000.0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>15000.0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>50000.0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>15000.0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
